--- a/data/trans_dic/IP19C03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C03-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,79; 31,81</t>
+          <t>13,33; 34,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,69; 46,85</t>
+          <t>23,43; 47,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,0; 52,29</t>
+          <t>23,38; 50,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 34,52</t>
+          <t>4,5; 34,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 35,93</t>
+          <t>16,11; 36,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,01; 36,54</t>
+          <t>15,53; 35,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,64; 45,7</t>
+          <t>14,9; 45,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,1; 42,93</t>
+          <t>8,66; 44,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,15; 31,33</t>
+          <t>17,06; 31,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,62; 38,32</t>
+          <t>22,15; 37,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22,56; 44,2</t>
+          <t>22,31; 44,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,99; 32,34</t>
+          <t>10,36; 33,06</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,42; 21,04</t>
+          <t>13,5; 21,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,51; 24,97</t>
+          <t>16,86; 25,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,35; 22,79</t>
+          <t>14,64; 23,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,16; 22,4</t>
+          <t>13,93; 22,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,45; 28,49</t>
+          <t>19,15; 28,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,69; 26,79</t>
+          <t>17,95; 26,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,32; 23,28</t>
+          <t>15,35; 23,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,72; 21,26</t>
+          <t>13,24; 21,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,26; 23,16</t>
+          <t>17,16; 23,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,45; 24,59</t>
+          <t>18,4; 24,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 22,16</t>
+          <t>15,92; 21,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,88; 20,59</t>
+          <t>14,77; 20,4</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,58; 25,1</t>
+          <t>10,56; 24,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 13,53</t>
+          <t>3,52; 13,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,91; 17,6</t>
+          <t>7,01; 18,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 18,09</t>
+          <t>7,39; 18,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 16,72</t>
+          <t>5,05; 15,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,2; 22,27</t>
+          <t>9,24; 22,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 14,12</t>
+          <t>4,21; 14,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,8; 20,84</t>
+          <t>9,78; 21,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 18,07</t>
+          <t>9,16; 17,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 16,02</t>
+          <t>7,61; 15,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 14,14</t>
+          <t>6,25; 13,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 17,49</t>
+          <t>9,55; 17,1</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,63; 21,12</t>
+          <t>14,56; 20,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 22,52</t>
+          <t>16,05; 22,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,88; 21,5</t>
+          <t>14,7; 21,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,38; 19,57</t>
+          <t>13,05; 19,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 24,67</t>
+          <t>17,4; 24,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,25; 24,16</t>
+          <t>17,52; 24,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 20,44</t>
+          <t>14,12; 20,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,69; 20,45</t>
+          <t>13,87; 20,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,88; 21,81</t>
+          <t>16,82; 21,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,58; 22,42</t>
+          <t>17,6; 22,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,38; 20,17</t>
+          <t>15,5; 19,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,22; 18,73</t>
+          <t>14,27; 18,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C03-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>24,7%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24,79%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28,32%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24,1%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>21,99%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>34,49%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>36,95%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,57%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>24,7%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>24,79%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>28,32%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>20,01%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,33; 34,12</t>
+          <t>15,54; 35,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,43; 47,72</t>
+          <t>15,76; 36,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,38; 50,62</t>
+          <t>14,48; 47,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,5; 34,46</t>
+          <t>8,62; 50,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,11; 36,42</t>
+          <t>13,15; 33,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,53; 35,59</t>
+          <t>22,34; 47,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,9; 45,7</t>
+          <t>22,08; 51,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,66; 44,16</t>
+          <t>3,88; 33,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,06; 31,45</t>
+          <t>17,2; 31,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,15; 37,79</t>
+          <t>21,71; 37,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22,31; 44,25</t>
+          <t>23,02; 44,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 33,06</t>
+          <t>10,29; 37,53</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>23,63%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19,14%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17,69%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>17,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>20,68%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>18,38%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>17,69%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>23,63%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>22,06%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>19,14%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>17,91%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,5; 21,07</t>
+          <t>19,55; 28,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,86; 25,5</t>
+          <t>17,87; 26,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,64; 23,02</t>
+          <t>15,14; 23,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,93; 22,04</t>
+          <t>14,29; 22,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,15; 28,17</t>
+          <t>13,53; 20,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,95; 26,27</t>
+          <t>16,93; 25,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,35; 23,41</t>
+          <t>14,37; 22,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 21,22</t>
+          <t>14,34; 22,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,16; 23,49</t>
+          <t>17,11; 23,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,4; 24,54</t>
+          <t>18,56; 24,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,92; 21,54</t>
+          <t>16,01; 21,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,77; 20,4</t>
+          <t>14,82; 20,76</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14,71%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>16,77%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>7,64%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>11,63%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,62%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,57%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>14,71%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,96%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>13,51%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,56; 24,74</t>
+          <t>5,11; 16,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 13,91</t>
+          <t>9,3; 22,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,01; 18,67</t>
+          <t>4,26; 14,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 18,41</t>
+          <t>9,6; 22,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 15,92</t>
+          <t>10,45; 24,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 22,72</t>
+          <t>3,95; 13,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 14,42</t>
+          <t>6,6; 18,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 21,81</t>
+          <t>7,11; 18,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 17,49</t>
+          <t>8,9; 17,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 15,77</t>
+          <t>7,62; 15,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 13,83</t>
+          <t>6,42; 14,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,55; 17,1</t>
+          <t>9,92; 18,29</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>20,74%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20,64%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17,59%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>17,55%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>19,4%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>18,19%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>15,88%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>20,74%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>20,64%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>17,0%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>16,86%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 20,75</t>
+          <t>17,27; 24,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,05; 22,56</t>
+          <t>17,58; 24,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,7; 21,72</t>
+          <t>13,77; 20,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,05; 19,22</t>
+          <t>14,61; 21,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 24,16</t>
+          <t>14,55; 20,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,52; 24,7</t>
+          <t>15,99; 22,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,12; 20,45</t>
+          <t>15,31; 21,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 20,43</t>
+          <t>13,19; 19,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,82; 21,61</t>
+          <t>16,81; 21,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,6; 22,55</t>
+          <t>17,74; 22,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,5; 19,87</t>
+          <t>15,38; 19,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,27; 18,94</t>
+          <t>14,82; 19,27</t>
         </is>
       </c>
     </row>
